--- a/medicine/Hématologie/Facteur_Hageman/Facteur_Hageman.xlsx
+++ b/medicine/Hématologie/Facteur_Hageman/Facteur_Hageman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur Hageman (aussi appelé facteur XII ou facteur contact) est une protéine entrant en jeu dans la gestion de la coagulation du sang (phénomène de coagulation des voies intrinsèques).
 Les facteurs forment une chaîne ordonnée complète permettant la fabrication des caillots de fibrine stable. Mais le déficit de ce facteur XII n'est pas nécessairement gênant dans le processus de fabrication.
@@ -514,9 +526,11 @@
           <t>Cible thérapeutique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le garadacimab est un anticorps monoclonal ciblant le facteur XII activé et en cours de test dans la prévention des crises de l'angiœdème bradykinique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le garadacimab est un anticorps monoclonal ciblant le facteur XII activé et en cours de test dans la prévention des crises de l'angiœdème bradykinique.
 </t>
         </is>
       </c>
